--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_origin_gaussian_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_origin_gaussian_kernel.xlsx
@@ -10,6 +10,8 @@
     <sheet name="origin_gaussian_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="origin_gaussian_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="origin_gaussian_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="origin_gaussian_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="origin_gaussian_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1471,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>81.74750646631892</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4767128525301814</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8174750646631891</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8118710536128143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>74.06413550290227</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6573977872418861</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7406413550290227</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7317188650515802</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>84.04458516077128</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4408362390783925</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8404458516077129</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.843357868304951</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>67.77921954342165</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8324505884200335</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6777921954342165</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6658050768145315</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.42605904895371</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.110236697271466</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6242605904895371</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5851211103222207</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>73.25149871538682</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6986802142113447</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7325149871538681</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7230082854484763</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>68.2139118850509</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7998894333839417</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.682139118850509</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6728781910822532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>70.06115969861331</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7635220269362132</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7006115969861331</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6941306981154116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>68.89860638932863</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.780631493528684</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6889860638932863</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6782087607478436</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>78.74384726511475</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5450952067660789</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7874384726511475</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7769121829800454</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>67.01070078460887</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8907108389617255</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6701070078460887</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6758171487979807</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>75.5047188989524</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6860520944154511</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7550471889895242</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7495513725774713</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>91.32760664019585</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2296482024985986</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9132760664019586</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9137417971333029</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>83.48394017249284</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4424179350530418</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8348394017249283</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8173253682973585</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.25610083132207</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1291166819709663</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9525610083132208</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9525092926634671</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>76.12090646689562</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.632226552817867</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7612090646689562</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7527971381299807</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>65.23620446543654</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9479515825708708</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6523620446543654</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6403257372467516</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>68.6254206351266</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8320168999334177</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.686254206351266</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6667252145175586</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>70.95675568127751</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9593466698463695</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7095675568127752</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6866739902088503</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>56.00679936677652</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.030224462598562</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5600679936677653</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5323859921181007</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>63.16283012828831</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.020340747510393</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6316283012828831</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6146684498774821</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>64.96656545471846</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9116461180150509</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6496656545471847</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6216607989287322</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>48.87819098781132</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.556767190620303</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4887819098781131</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3898660676175488</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>49.84973918459502</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.084926558037599</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4984973918459502</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4758411717777644</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>55.81397762956427</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.058278157313665</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5581397762956427</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5338552956541955</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>59.57594788882257</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9564177851503095</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5957594788882257</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5756905377020807</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>61.05346932066887</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9397027250379324</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6105346932066886</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5895145208504962</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>64.1057448593846</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7989584674437842</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6410574485938459</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6413253010771445</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>69.94472270521371</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7670913596947988</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6994472270521371</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6771152610405844</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>78.77178868329311</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.519998260345892</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7877178868329311</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7725411215210136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>91.84932395608959</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2726089785651614</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9184932395608959</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9191938613866221</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>64.58649872980448</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9104183975122739</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6458649872980445</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6224922214349952</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_origin_gaussian_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_prj_origin_gaussian_kernel.xlsx
@@ -10,8 +10,10 @@
     <sheet name="origin_gaussian_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="origin_gaussian_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="origin_gaussian_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="origin_gaussian_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="origin_gaussian_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="origin_gaussian_sr_0.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="origin_gaussian_sr_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="origin_gaussian_sr_0.15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="origin_gaussian_sr_0.1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.80825958702064</v>
+        <v>94.74926253687315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1336238252076631</v>
+        <v>0.1261879399837199</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9480825958702065</v>
+        <v>0.9474926253687315</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9475966836087231</v>
+        <v>0.9458245835130816</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.36386992967067</v>
+        <v>94.30730369639875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2349120487833905</v>
+        <v>0.1846457619030237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9336386992967067</v>
+        <v>0.9430730369639877</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9309076946229734</v>
+        <v>0.9416360834909389</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.952802359882</v>
+        <v>94.80843259889791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1972804918475352</v>
+        <v>0.1394983028891147</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9395280235988202</v>
+        <v>0.9480843259889792</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9373582794110066</v>
+        <v>0.9439116674966698</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.39267640723536</v>
+        <v>93.48099897057934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.175258572530341</v>
+        <v>0.1762732209220606</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9339267640723536</v>
+        <v>0.9348099897057933</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9281796906507868</v>
+        <v>0.9315710636893779</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.01317485445375</v>
+        <v>83.07182588084672</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4180082821539448</v>
+        <v>0.3994608118043592</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8301317485445375</v>
+        <v>0.8307182588084672</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8137506435689797</v>
+        <v>0.8149293483055742</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.09161843960588</v>
+        <v>88.70569814617774</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2936156370599444</v>
+        <v>0.3415402576327324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9109161843960587</v>
+        <v>0.8870569814617774</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8960880062699073</v>
+        <v>0.8712394619994452</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.32743362831859</v>
+        <v>91.50442477876106</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2196039577009893</v>
+        <v>0.2257633462819892</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9132743362831859</v>
+        <v>0.9150442477876106</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9111934880322297</v>
+        <v>0.9150650078059787</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.77581120943952</v>
+        <v>93.03852109447314</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1534004355642537</v>
+        <v>0.1729821740185798</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9377581120943953</v>
+        <v>0.9303852109447313</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9355353967199622</v>
+        <v>0.9284192200019007</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.18289085545722</v>
+        <v>93.48082595870207</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2004400668806435</v>
+        <v>0.1924055153906617</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9218289085545722</v>
+        <v>0.9348082595870206</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9185754382355158</v>
+        <v>0.9317531262934425</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.71386430678466</v>
+        <v>89.91150442477877</v>
       </c>
       <c r="C11" t="n">
-        <v>0.176264279899442</v>
+        <v>0.2495248216383061</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9271386430678465</v>
+        <v>0.8991150442477875</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9239509201562626</v>
+        <v>0.889131044498636</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80.82630472581943</v>
+        <v>81.29793510324484</v>
       </c>
       <c r="C12" t="n">
-        <v>0.649610966577408</v>
+        <v>0.6598783634168892</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8082630472581943</v>
+        <v>0.8129793510324484</v>
       </c>
       <c r="E12" t="n">
-        <v>0.795151902393435</v>
+        <v>0.8017012740911671</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.2981081151221</v>
+        <v>84.04147094698051</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5966515963111305</v>
+        <v>0.5193779479460015</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8129810811512211</v>
+        <v>0.840414709469805</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8019367232219053</v>
+        <v>0.8282260181007318</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.2330383480826</v>
+        <v>99.35103244837758</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03552148310986165</v>
+        <v>0.03044257581688612</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9923303834808259</v>
+        <v>0.9935103244837759</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9923352724627665</v>
+        <v>0.9935200173236787</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.76401179941004</v>
+        <v>99.73451327433629</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01132362831498597</v>
+        <v>0.008814397703997657</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9976401179941004</v>
+        <v>0.9973451327433628</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9976490060520969</v>
+        <v>0.9973542973082987</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.84070796460176</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08775234699607873</v>
+        <v>0.07662023345301965</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9584070796460177</v>
+        <v>0.9666666666666666</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9560223579300315</v>
+        <v>0.9653203442528451</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.77230483539363</v>
+        <v>91.87669443507296</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2388845079291741</v>
+        <v>0.2335610447200894</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9177230483539363</v>
+        <v>0.9187669443507295</v>
       </c>
       <c r="E17" t="n">
-        <v>0.912415433555772</v>
+        <v>0.9133068372114511</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +823,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.50164793813096</v>
+        <v>90.76834574693552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2596687495718167</v>
+        <v>0.2362517605438673</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9050164793813096</v>
+        <v>0.9076834574693553</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9028750819160531</v>
+        <v>0.9071106278080713</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +842,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.94372788691945</v>
+        <v>83.698215382486</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3379172901038449</v>
+        <v>0.4111364833603147</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8494372788691944</v>
+        <v>0.8369821538248601</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8466983453830206</v>
+        <v>0.8318410147654905</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +861,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.21533923303835</v>
+        <v>92.09439528023599</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1822068964372496</v>
+        <v>0.210425259374703</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9321533923303835</v>
+        <v>0.9209439528023597</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9325267473371349</v>
+        <v>0.9195576540177125</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +880,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.82246386214413</v>
+        <v>85.35255495289752</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3397209626932939</v>
+        <v>0.4064964732620865</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8682246386214414</v>
+        <v>0.8535255495289752</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8679026869280693</v>
+        <v>0.8505737924360988</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +899,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.97595134906011</v>
+        <v>69.71677955691658</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9630390841707896</v>
+        <v>0.8932954037096351</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6997595134906012</v>
+        <v>0.6971677955691657</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6696752632291655</v>
+        <v>0.6741235991267883</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +918,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.66403688613224</v>
+        <v>83.07857334406006</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4426716226696347</v>
+        <v>0.4870313021664819</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8266403688613224</v>
+        <v>0.8307857334406007</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8245840478516941</v>
+        <v>0.8155110914606913</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +937,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.07407503525117</v>
+        <v>85.90143513352191</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4598420573476081</v>
+        <v>0.3561121206730604</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8307407503525118</v>
+        <v>0.8590143513352192</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8285842437336122</v>
+        <v>0.8528512914949491</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +956,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.40846374103583</v>
+        <v>85.08343497781122</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2625687324262496</v>
+        <v>0.3611056195232474</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8840846374103583</v>
+        <v>0.8508343497781123</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8845398317356791</v>
+        <v>0.8433760118521283</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +975,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85.87435877472988</v>
+        <v>87.14089222225105</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3347408528090455</v>
+        <v>0.31185837664331</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8587435877472988</v>
+        <v>0.8714089222225105</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8556673044075088</v>
+        <v>0.8719132318547926</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +994,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.16258791166014</v>
+        <v>80.59135459649306</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4365250233206703</v>
+        <v>0.5051473875239025</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8516258791166014</v>
+        <v>0.8059135459649305</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8443435802613306</v>
+        <v>0.7932785920069864</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1013,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75.75844081696208</v>
+        <v>80.76713466379468</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8645004356442465</v>
+        <v>0.7196630568340575</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7575844081696209</v>
+        <v>0.8076713466379466</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7459292913847829</v>
+        <v>0.7988949777376598</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1032,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.03330478637358</v>
+        <v>81.04092595956713</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6310050133964978</v>
+        <v>0.5624226563998188</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8003330478637359</v>
+        <v>0.8104092595956713</v>
       </c>
       <c r="E13" t="n">
-        <v>0.790028014072228</v>
+        <v>0.8037153752481399</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1051,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.34218289085545</v>
+        <v>93.92330383480825</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09378353986479246</v>
+        <v>0.1486959371586939</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9634218289085545</v>
+        <v>0.9392330383480825</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9630606648771659</v>
+        <v>0.9376244544226784</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1070,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.15634218289085</v>
+        <v>89.70501474926253</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1554896862078143</v>
+        <v>0.2569080140042085</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9315634218289086</v>
+        <v>0.8970501474926253</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9323232684675281</v>
+        <v>0.8855103766087982</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1089,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.78171091445428</v>
+        <v>95.01492227441415</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09982224308854104</v>
+        <v>0.1152270900278798</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9578171091445429</v>
+        <v>0.9501492227441414</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9561930500556978</v>
+        <v>0.9488532517556951</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1108,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>86.11430894730923</v>
+        <v>85.59181884503037</v>
       </c>
       <c r="C17" t="n">
-        <v>0.390900145983473</v>
+        <v>0.3987851294136845</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8611430894730924</v>
+        <v>0.8559181884503035</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8563287614427112</v>
+        <v>0.848982356173112</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1173,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.02220607444701</v>
+        <v>85.89987802662652</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3413184555829503</v>
+        <v>0.373908649860338</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8702220607444702</v>
+        <v>0.8589987802662653</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8699515125475894</v>
+        <v>0.8555402286251459</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1192,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.16181800880631</v>
+        <v>79.42646562686528</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5988129140033076</v>
+        <v>0.4974833925487473</v>
       </c>
       <c r="D3" t="n">
-        <v>0.761618180088063</v>
+        <v>0.7942646562686528</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7438649345416583</v>
+        <v>0.7882480908890644</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.87852836097198</v>
+        <v>88.67291239543594</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2911763361034294</v>
+        <v>0.2911172303914403</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8787852836097197</v>
+        <v>0.8867291239543593</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8786107482031478</v>
+        <v>0.8878741298729377</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1230,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.13250979679755</v>
+        <v>82.54085242951928</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5799044592228408</v>
+        <v>0.4456211473171909</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7813250979679756</v>
+        <v>0.8254085242951928</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7816732494348243</v>
+        <v>0.8211571595493732</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1249,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.78321611778649</v>
+        <v>66.63656260002249</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9822835869466265</v>
+        <v>0.928216752425457</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6978321611778648</v>
+        <v>0.666365626000225</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6722976606044154</v>
+        <v>0.6389900525613875</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1268,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.69420150693345</v>
+        <v>76.15403247432937</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6138357792049647</v>
+        <v>0.6579681272152811</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7969420150693345</v>
+        <v>0.7615403247432936</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7822293155846699</v>
+        <v>0.7531551614972875</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1287,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.90227424112666</v>
+        <v>72.11117743233073</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8231753340611855</v>
+        <v>0.8798011213851472</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7290227424112665</v>
+        <v>0.7211117743233073</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7006423246090374</v>
+        <v>0.6889706771083766</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1306,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>79.51478819020926</v>
+        <v>72.51844739141342</v>
       </c>
       <c r="C9" t="n">
-        <v>0.478596560889855</v>
+        <v>0.688287869328633</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7951478819020925</v>
+        <v>0.7251844739141342</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7945379480730191</v>
+        <v>0.707466348915412</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1325,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.48337788389173</v>
+        <v>76.85819081479944</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5634026926942169</v>
+        <v>0.5605512948357501</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7848337788389174</v>
+        <v>0.7685819081479943</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7720616716029609</v>
+        <v>0.7512387379750092</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1344,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.40323878234241</v>
+        <v>82.19136843744323</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7517058756008435</v>
+        <v>0.5023874934465614</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7440323878234241</v>
+        <v>0.8219136843744324</v>
       </c>
       <c r="E11" t="n">
-        <v>0.731853606064248</v>
+        <v>0.8064621092185703</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1363,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.61338765906279</v>
+        <v>67.68838830785734</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6381639503573144</v>
+        <v>0.9904289120449297</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7761338765906279</v>
+        <v>0.6768838830785733</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7698413755416114</v>
+        <v>0.6613362136288009</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1382,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.69631225183609</v>
+        <v>73.07528611839203</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8795443713354567</v>
+        <v>0.8263527213285367</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7369631225183608</v>
+        <v>0.7307528611839202</v>
       </c>
       <c r="E13" t="n">
-        <v>0.718865717098932</v>
+        <v>0.7189225292072829</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1401,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94.21828908554572</v>
+        <v>93.5103244837758</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1771233931256574</v>
+        <v>0.1926238720945548</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9421828908554571</v>
+        <v>0.9351032448377581</v>
       </c>
       <c r="E14" t="n">
-        <v>0.942622977128487</v>
+        <v>0.935211962312424</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1420,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85.3689045752991</v>
+        <v>86.01804513879878</v>
       </c>
       <c r="C15" t="n">
-        <v>0.370029752936413</v>
+        <v>0.4034490129125818</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8536890457529911</v>
+        <v>0.8601804513879878</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8431505374238805</v>
+        <v>0.8528951671351667</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1439,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.93544926859229</v>
+        <v>97.28803882386526</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06634531812160276</v>
+        <v>0.0791017971704908</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9793544926859228</v>
+        <v>0.9728803882386525</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9793757378474416</v>
+        <v>0.9725075215223216</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1458,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>80.85390012024325</v>
+        <v>80.03933136676498</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5436945853457775</v>
+        <v>0.5544866262870427</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8085390012024327</v>
+        <v>0.8003933136676499</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7987719544203948</v>
+        <v>0.7893317393345707</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1523,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.74750646631892</v>
+        <v>79.60605195546674</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4767128525301814</v>
+        <v>0.570898664665098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8174750646631891</v>
+        <v>0.7960605195546674</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8118710536128143</v>
+        <v>0.7890348651302979</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1542,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.06413550290227</v>
+        <v>80.42751234872274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6573977872418861</v>
+        <v>0.4519320657146939</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7406413550290227</v>
+        <v>0.8042751234872274</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7317188650515802</v>
+        <v>0.7995387779140236</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1561,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.04458516077128</v>
+        <v>85.16795127985536</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4408362390783925</v>
+        <v>0.3558532377510952</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8404458516077129</v>
+        <v>0.8516795127985537</v>
       </c>
       <c r="E4" t="n">
-        <v>0.843357868304951</v>
+        <v>0.8464884079372126</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1580,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.77921954342165</v>
+        <v>81.25174093201498</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8324505884200335</v>
+        <v>0.5234605663145582</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6777921954342165</v>
+        <v>0.8125174093201497</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6658050768145315</v>
+        <v>0.8052798261223483</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1599,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.42605904895371</v>
+        <v>63.45089490393516</v>
       </c>
       <c r="C6" t="n">
-        <v>1.110236697271466</v>
+        <v>1.020601375001327</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6242605904895371</v>
+        <v>0.6345089490393516</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5851211103222207</v>
+        <v>0.5951391515376446</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1618,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.25149871538682</v>
+        <v>69.92845958875077</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6986802142113447</v>
+        <v>0.7737582440177599</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7325149871538681</v>
+        <v>0.6992845958875077</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7230082854484763</v>
+        <v>0.6946520098977417</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1637,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.2139118850509</v>
+        <v>71.51688163392416</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7998894333839417</v>
+        <v>0.7389629748960336</v>
       </c>
       <c r="D8" t="n">
-        <v>0.682139118850509</v>
+        <v>0.7151688163392417</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6728781910822532</v>
+        <v>0.6984564528747162</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1656,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.06115969861331</v>
+        <v>76.93820880803467</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7635220269362132</v>
+        <v>0.6467776131505768</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7006115969861331</v>
+        <v>0.7693820880803467</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6941306981154116</v>
+        <v>0.7638907491356033</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1675,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68.89860638932863</v>
+        <v>74.88732601493092</v>
       </c>
       <c r="C10" t="n">
-        <v>0.780631493528684</v>
+        <v>0.6519547468672197</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6889860638932863</v>
+        <v>0.7488732601493092</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6782087607478436</v>
+        <v>0.7381047711070006</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1694,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.74384726511475</v>
+        <v>77.2061176999801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5450952067660789</v>
+        <v>0.5742464230609282</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7874384726511475</v>
+        <v>0.772061176999801</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7769121829800454</v>
+        <v>0.7543382535414062</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1713,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67.01070078460887</v>
+        <v>68.6169430531406</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8907108389617255</v>
+        <v>1.021910299104638</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6701070078460887</v>
+        <v>0.686169430531406</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6758171487979807</v>
+        <v>0.6700214570093981</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1732,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.5047188989524</v>
+        <v>75.02201576138202</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6860520944154511</v>
+        <v>0.7801488455384969</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7550471889895242</v>
+        <v>0.7502201576138202</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7495513725774713</v>
+        <v>0.7343042178132729</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1751,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.32760664019585</v>
+        <v>93.09734513274336</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2296482024985986</v>
+        <v>0.2087508350096565</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9132760664019586</v>
+        <v>0.9309734513274336</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9137417971333029</v>
+        <v>0.9309026836665018</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.48394017249284</v>
+        <v>83.82935838545316</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4424179350530418</v>
+        <v>0.4552451585278807</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8348394017249283</v>
+        <v>0.8382935838545317</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8173253682973585</v>
+        <v>0.8280106891111092</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1789,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.25610083132207</v>
+        <v>96.07929134335072</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1291166819709663</v>
+        <v>0.1361646384514946</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9525610083132208</v>
+        <v>0.9607929134335071</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9525092926634671</v>
+        <v>0.9602475997015792</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1808,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.12090646689562</v>
+        <v>78.46840658944571</v>
       </c>
       <c r="C17" t="n">
-        <v>0.632226552817867</v>
+        <v>0.5940443792047638</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7612090646689562</v>
+        <v>0.7846840658944569</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7527971381299807</v>
+        <v>0.7738939941666571</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1873,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.23620446543654</v>
+        <v>79.83356257407071</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9479515825708708</v>
+        <v>0.5834580277403195</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6523620446543654</v>
+        <v>0.798335625740707</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6403257372467516</v>
+        <v>0.7873804078250848</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1892,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.6254206351266</v>
+        <v>70.648362010052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8320168999334177</v>
+        <v>0.7196352106519044</v>
       </c>
       <c r="D3" t="n">
-        <v>0.686254206351266</v>
+        <v>0.7064836201005199</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6667252145175586</v>
+        <v>0.6959091894764351</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1911,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.95675568127751</v>
+        <v>83.54466734141299</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9593466698463695</v>
+        <v>0.4352786073538785</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7095675568127752</v>
+        <v>0.8354466734141299</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6866739902088503</v>
+        <v>0.8337900963354479</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1930,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.00679936677652</v>
+        <v>67.0645074784384</v>
       </c>
       <c r="C5" t="n">
-        <v>1.030224462598562</v>
+        <v>0.971020839860042</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5600679936677653</v>
+        <v>0.670645074784384</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5323859921181007</v>
+        <v>0.6463603514302785</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1949,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.16283012828831</v>
+        <v>64.42884454017768</v>
       </c>
       <c r="C6" t="n">
-        <v>1.020340747510393</v>
+        <v>0.8613258141403397</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6316283012828831</v>
+        <v>0.6442884454017769</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6146684498774821</v>
+        <v>0.6189657536810385</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1968,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.96656545471846</v>
+        <v>70.80364016989766</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9116461180150509</v>
+        <v>0.8606280202666918</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6496656545471847</v>
+        <v>0.7080364016989766</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6216607989287322</v>
+        <v>0.6954195833874803</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1987,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.87819098781132</v>
+        <v>66.9748008200763</v>
       </c>
       <c r="C8" t="n">
-        <v>1.556767190620303</v>
+        <v>0.8959913268685341</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4887819098781131</v>
+        <v>0.669748008200763</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3898660676175488</v>
+        <v>0.6602298960836899</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2006,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.84973918459502</v>
+        <v>74.02875457400151</v>
       </c>
       <c r="C9" t="n">
-        <v>1.084926558037599</v>
+        <v>0.626586138146619</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4984973918459502</v>
+        <v>0.7402875457400151</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4758411717777644</v>
+        <v>0.736441445122798</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2025,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.81397762956427</v>
+        <v>70.73616553776417</v>
       </c>
       <c r="C10" t="n">
-        <v>1.058278157313665</v>
+        <v>0.7626687988328437</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5581397762956427</v>
+        <v>0.7073616553776417</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5338552956541955</v>
+        <v>0.7024250989394145</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2044,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.57594788882257</v>
+        <v>76.79659858649296</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9564177851503095</v>
+        <v>0.588310064941955</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5957594788882257</v>
+        <v>0.7679659858649297</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5756905377020807</v>
+        <v>0.751737683573542</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2063,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.05346932066887</v>
+        <v>70.39472659798095</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9397027250379324</v>
+        <v>0.7841254704631865</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6105346932066886</v>
+        <v>0.7039472659798095</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5895145208504962</v>
+        <v>0.7004089985939868</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2082,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.1057448593846</v>
+        <v>68.67715118642894</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7989584674437842</v>
+        <v>0.8404469926220676</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6410574485938459</v>
+        <v>0.6867715118642895</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6413253010771445</v>
+        <v>0.6719863846933695</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2101,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>69.94472270521371</v>
+        <v>91.26912862568015</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7670913596947988</v>
+        <v>0.2409444472597291</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6994472270521371</v>
+        <v>0.9126912862568016</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6771152610405844</v>
+        <v>0.9125910460568278</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2120,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.77178868329311</v>
+        <v>78.38692376231629</v>
       </c>
       <c r="C15" t="n">
-        <v>0.519998260345892</v>
+        <v>0.5778349078438623</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7877178868329311</v>
+        <v>0.7838692376231629</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7725411215210136</v>
+        <v>0.7720211115397813</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2139,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.84932395608959</v>
+        <v>94.69303367676191</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2726089785651614</v>
+        <v>0.1446817029675003</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9184932395608959</v>
+        <v>0.946930336767619</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9191938613866221</v>
+        <v>0.9460641901158754</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2158,716 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.58649872980448</v>
+        <v>75.21872449877017</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9104183975122739</v>
+        <v>0.6595290913306314</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6458649872980445</v>
+        <v>0.7521872449877017</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6224922214349952</v>
+        <v>0.7421154157903367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>61.83591553560152</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9105961317817369</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6183591553560153</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6053282588680149</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>54.40678552582635</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.024145896236102</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5440678552582635</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5339576040202266</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>72.26835872282632</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7493368953466415</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7226835872282632</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7222046803517553</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>57.08872914125554</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.101549994448821</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5708872914125555</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5517272079025289</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>53.63316291663423</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.216177980291347</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5363316291663422</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4913861274308223</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>64.49562712480211</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9217593319093187</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6449562712480212</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6326656266524179</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>49.01495687678959</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.232537873834372</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4901495687678959</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4529074478744457</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>58.23830655974533</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.017255654434363</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5823830655974532</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5572831973493011</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>52.53600809695585</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0984633654356</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5253600809695586</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4969927513888619</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>66.53344752117233</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7793240062892437</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6653344752117233</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6598812642088683</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>57.93043192415159</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.091657556407154</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5793043192415159</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5543924719716345</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>61.19836676787861</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8957566191752753</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6119836676787862</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5982201925011077</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>75.3273817247554</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7441608508738379</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.753273817247554</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7362444205107688</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>76.91649581743786</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5237546593600807</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7691649581743787</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7590083156635922</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>88.6936738207078</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2963114827716102</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8869367382070779</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8880034630124503</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>63.34117653843602</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9068525532397002</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6334117653843604</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6160135353137864</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>50.71090580368342</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.210532700518767</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5071090580368343</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4811436958547136</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>53.62157112085745</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9594528605540594</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5362157112085745</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.512143767745624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>62.80988589866695</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9050962885220846</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6280988589866695</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6160467326853066</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>60.16920561596553</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9253729047874609</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6016920561596554</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5873684778357756</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>60.89161670948711</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9543182806422313</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6089161670948711</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.567764457152132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>56.62471128642981</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.077340383827686</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5662471128642982</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5495422348855981</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>41.5439579927162</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.327288640042146</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4154395799271621</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3785573958969398</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>44.91812212908416</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.176765846833587</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4491812212908416</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4120477319913716</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>50.32673293021566</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.099966762463252</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5032673293021566</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4731530032758663</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>55.86657324025295</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.043625480930011</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5586657324025295</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5419243619494805</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54.21967318056384</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0935183044523</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5421967318056384</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5222523970181382</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>55.16120381664201</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9683460801839828</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5516120381664201</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5348330034675653</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>75.45316135952733</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6071332077185313</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7545316135952733</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7508565810420439</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>74.57270391612384</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5515098118970247</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7457270391612385</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7341871331317119</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>88.32178479052587</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3312938298719625</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8832178479052587</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8847589311508044</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>59.01412065271614</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9487707588830057</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5901412065271613</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5697719936722048</v>
       </c>
     </row>
   </sheetData>
